--- a/aditional/products_teste.xlsx
+++ b/aditional/products_teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\workspace-spring-tool-suite-4-4.11.0.RELEASE\ProdutosLoja\aditional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7A11BF-B028-4C4E-86D6-79C9868787FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DA841F-BEBA-48D7-A42E-F3BFB2CCC7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22095" yWindow="3450" windowWidth="15375" windowHeight="8325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Category</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t>Luva de proteção básica</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>5.6</t>
   </si>
 </sst>
 </file>
@@ -511,7 +529,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,8 +575,8 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
-        <v>100</v>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -574,8 +592,8 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2">
-        <v>140</v>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,7 +609,7 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -608,8 +626,8 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
-        <v>399</v>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,8 +643,8 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
-        <v>3.9</v>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,8 +660,8 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2">
-        <v>5.6</v>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
